--- a/src/main/webapp/templaters/产品信息.xlsx
+++ b/src/main/webapp/templaters/产品信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="19100" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>产品编码</t>
   </si>
@@ -28,12 +28,6 @@
     <t>型号</t>
   </si>
   <si>
-    <t>上线日期</t>
-  </si>
-  <si>
-    <t>下线日期</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
 </sst>
@@ -42,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,9 +57,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,124 +179,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,13 +203,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,169 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +394,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,31 +451,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,38 +473,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,137 +514,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,12 +652,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1">
@@ -988,21 +976,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="8.72727272727273" style="1"/>
     <col min="4" max="4" width="8.72727272727273" style="2"/>
-    <col min="5" max="5" width="11.8181818181818" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.72727272727273" style="1"/>
+    <col min="5" max="5" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,84 +999,78 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="4"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="4"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="4:4">
-      <c r="D12" s="5"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="5"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="5"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="5"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="5"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="5"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="5"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="5"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="5"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="5"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="5"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="5"/>
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/src/main/webapp/templaters/产品信息.xlsx
+++ b/src/main/webapp/templaters/产品信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7280"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>产品名称</t>
   </si>
   <si>
-    <t>规格</t>
+    <t>含量</t>
   </si>
   <si>
     <t>型号</t>
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,6 +59,105 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,116 +178,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,55 +203,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,127 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,8 +400,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,12 +421,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -455,45 +494,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,10 +502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +514,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,14 +979,14 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="8.72727272727273" style="1"/>
-    <col min="4" max="4" width="8.72727272727273" style="2"/>
-    <col min="5" max="5" width="8.72727272727273" style="1"/>
+    <col min="1" max="3" width="8.725" style="1"/>
+    <col min="4" max="4" width="8.725" style="2"/>
+    <col min="5" max="5" width="8.725" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
